--- a/docentes/Herrera Serrano Mayra Iliana - Estadisticos 20242.xlsx
+++ b/docentes/Herrera Serrano Mayra Iliana - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="69">
   <si>
     <t>Mat</t>
   </si>
@@ -82,6 +82,36 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>PLIEGO</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>NICANOR</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>GARIBAY</t>
+  </si>
+  <si>
+    <t>VICENTE</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
@@ -91,57 +121,93 @@
     <t>ESTEVEZ</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>MONTES</t>
-  </si>
-  <si>
     <t>MONTERD</t>
   </si>
   <si>
-    <t>PLIEGO</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
     <t>MOLINA</t>
   </si>
   <si>
-    <t>VICENTE</t>
-  </si>
-  <si>
     <t>ROJAS</t>
   </si>
   <si>
+    <t>PELLICO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>MALDONADO</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>QUINTANA</t>
+  </si>
+  <si>
+    <t>BELLO</t>
+  </si>
+  <si>
+    <t>LOBATO</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
     <t>HUERTA</t>
   </si>
   <si>
     <t>MARIN</t>
   </si>
   <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
     <t>MACUISTLE</t>
   </si>
   <si>
-    <t>QUINTANA</t>
-  </si>
-  <si>
     <t>ANGUIANO</t>
   </si>
   <si>
+    <t>YOSHUA RAFAEL</t>
+  </si>
+  <si>
+    <t>MYA YAMILET</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>DENISSE ARELI</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>LIZBETH MARIAM</t>
+  </si>
+  <si>
+    <t>CRISTIAN</t>
+  </si>
+  <si>
+    <t>JOACIM ALBERTO</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>CALEB SANTIAGO</t>
+  </si>
+  <si>
     <t>DIEGO</t>
   </si>
   <si>
@@ -151,25 +217,10 @@
     <t>ESTRELLA MONTSERRAT</t>
   </si>
   <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>LIA</t>
-  </si>
-  <si>
     <t>ISAI</t>
   </si>
   <si>
-    <t>CALEB SANTIAGO</t>
-  </si>
-  <si>
-    <t>EDUARDO EMER</t>
-  </si>
-  <si>
     <t>ANGEL FRANCISCO</t>
-  </si>
-  <si>
-    <t>CRISTIAN</t>
   </si>
   <si>
     <t>LUIS ANGEL</t>
@@ -722,16 +773,19 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>70.97</v>
+      </c>
+      <c r="H2">
+        <v>6.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -745,16 +799,19 @@
         <v>49</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>77.55</v>
+      </c>
+      <c r="H3">
+        <v>6.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -768,16 +825,19 @@
         <v>31</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>31</v>
       </c>
-      <c r="E4">
-        <v>31</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>7.3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -791,16 +851,19 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>94.29000000000001</v>
+      </c>
+      <c r="H5">
+        <v>7.9</v>
       </c>
     </row>
   </sheetData>
@@ -859,16 +922,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>74.19</v>
+        <v>70.97</v>
       </c>
       <c r="H2">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -894,7 +957,7 @@
         <v>77.55</v>
       </c>
       <c r="H3">
-        <v>6.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -911,16 +974,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4">
-        <v>96.77</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -937,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5">
-        <v>91.43000000000001</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="H5">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -956,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -991,16 +1054,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920279</v>
+        <v>24330051920259</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1014,22 +1077,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24330051920372</v>
+        <v>24330051920117</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1037,16 +1100,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24330051920250</v>
+        <v>24330051920348</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1060,39 +1123,39 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24330051920132</v>
+        <v>24330051920387</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24330051920183</v>
+        <v>24330051920129</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1101,21 +1164,21 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>24330051920281</v>
+        <v>24330051920345</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1124,67 +1187,67 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>24330051920351</v>
+        <v>22330051920426</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>22330051920150</v>
+        <v>24330051920384</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>24330051920347</v>
+        <v>24330051920350</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1193,27 +1256,27 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>22330051920426</v>
+        <v>24330051920132</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1221,24 +1284,162 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
+        <v>24330051920351</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>24330051920279</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>24330051920372</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>24330051920250</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>24330051920281</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>24330051920347</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
         <v>22330051920172</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F18" t="s">
         <v>14</v>
       </c>
-      <c r="G12">
+      <c r="G18">
         <v>1</v>
       </c>
     </row>
